--- a/PracaNaLekcjiNr4/zadanie 3/tabelka.xlsx
+++ b/PracaNaLekcjiNr4/zadanie 3/tabelka.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\OneDrive\Pulpit\Szczecin\szkoła\INF\SCI_INF\PracaNaLekcjiNr4\zadanie 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0AE56E5-BCF1-4651-BF5F-4F35036D9457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A35D043-96A6-4E40-8DCD-B981DD75418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41714FDC-95C1-4CB1-89E9-EBB079F340BB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
   <si>
     <t>Sortowanie</t>
   </si>
@@ -67,6 +67,15 @@
   </si>
   <si>
     <t>różnica</t>
+  </si>
+  <si>
+    <t>wniosek: najlepsze jest sortowanie szybkie</t>
+  </si>
+  <si>
+    <t>przy 1000 elementach losowanie szybkie jest ponad 200 razy szybsze od najwolniejszego sortowania bąbelkowego</t>
+  </si>
+  <si>
+    <t>przy 10000 elementach losowanie szybkie jest ponad 700 razy szybsze od najwolniejszego sortowania bąbelkowego</t>
   </si>
 </sst>
 </file>
@@ -137,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -159,6 +168,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -474,15 +489,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4B25D4-6D70-4405-8F48-617EA9A4608E}">
-  <dimension ref="B2:I12"/>
+  <dimension ref="B2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" customWidth="1"/>
@@ -712,7 +727,32 @@
         <v>717.27010166358593</v>
       </c>
     </row>
+    <row r="15" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:G16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PracaNaLekcjiNr4/zadanie 3/tabelka.xlsx
+++ b/PracaNaLekcjiNr4/zadanie 3/tabelka.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karol\OneDrive\Pulpit\Szczecin\szkoła\INF\SCI_INF\PracaNaLekcjiNr4\zadanie 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A35D043-96A6-4E40-8DCD-B981DD75418D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ADF3D8-6D5C-49B7-8FB9-D1CC5C8CFB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41714FDC-95C1-4CB1-89E9-EBB079F340BB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{41714FDC-95C1-4CB1-89E9-EBB079F340BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Arkusz2" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="13">
   <si>
     <t>Sortowanie</t>
   </si>
@@ -66,16 +68,13 @@
     <t>szybkie</t>
   </si>
   <si>
-    <t>różnica</t>
+    <t>0.0209354</t>
   </si>
   <si>
-    <t>wniosek: najlepsze jest sortowanie szybkie</t>
+    <t xml:space="preserve"> wstawienie</t>
   </si>
   <si>
-    <t>przy 1000 elementach losowanie szybkie jest ponad 200 razy szybsze od najwolniejszego sortowania bąbelkowego</t>
-  </si>
-  <si>
-    <t>przy 10000 elementach losowanie szybkie jest ponad 700 razy szybsze od najwolniejszego sortowania bąbelkowego</t>
+    <t>wstawienie</t>
   </si>
 </sst>
 </file>
@@ -83,7 +82,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -159,7 +158,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -169,12 +168,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -190,6 +187,2722 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Sortowanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 1000 elementów</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6784776902887139E-2"/>
+          <c:y val="0.2027456647398844"/>
+          <c:w val="0.8186526684164479"/>
+          <c:h val="0.70959408614385633"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0" formatCode="0.00000000">
+                  <c:v>4.6159399999999996E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0207933333333334E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8734233333333333E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2169999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6EE5-4599-9C60-4A7EF7D49D1E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="315618319"/>
+        <c:axId val="315616239"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="315618319"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315616239"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="315616239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00000000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315618319"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>sortowanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 10000 elementów</a:t>
+            </a:r>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz2!$G$3:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0695633333333334</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.40058303333333339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8853333333333335E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9841-469F-8F9D-14D5F03276D5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="316074239"/>
+        <c:axId val="316072991"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="316074239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316072991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316072991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316074239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>sortowanie</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pl-PL" baseline="0"/>
+              <a:t> 20000 elementów</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz3!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>22.064433333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.63802</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0568466666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.02794E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-85F3-4574-B4FE-9FCFD3578689}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="310922575"/>
+        <c:axId val="310923407"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="310922575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310923407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="310923407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310922575"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Wykres 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B43BA7A-D4FC-4671-BE69-C13A37C4504B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD477AE-B423-4FEA-928F-96E972D7D2B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>944880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1096877-3EAA-4D47-ABF7-302700C5A8AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -489,10 +3202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4B25D4-6D70-4405-8F48-617EA9A4608E}">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,7 +3218,7 @@
     <col min="7" max="7" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,7 +3238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
@@ -546,7 +3259,7 @@
         <v>4.6159399999999996E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
@@ -567,7 +3280,7 @@
         <v>1.0207933333333334E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
@@ -587,11 +3300,8 @@
         <f>AVERAGE(D5:F5)</f>
         <v>1.8734233333333333E-2</v>
       </c>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -611,149 +3321,277 @@
         <f>AVERAGE(D6:F6)</f>
         <v>2.2169999999999999E-4</v>
       </c>
-      <c r="I6">
-        <f>G3/G6</f>
-        <v>208.20658547586828</v>
-      </c>
     </row>
-    <row r="8" spans="2:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="B8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
-      </c>
+    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
-    <row r="9" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1.9244300000000001</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2.12</v>
-      </c>
-      <c r="F9" s="7">
-        <v>2.1642600000000001</v>
-      </c>
-      <c r="G9" s="5">
-        <f>AVERAGE(D9:F9)</f>
-        <v>2.0695633333333334</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.30981999999999998</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0.307728</v>
-      </c>
-      <c r="F10" s="7">
-        <v>0.30930200000000002</v>
-      </c>
-      <c r="G10" s="5">
-        <f>AVERAGE(D10:F10)</f>
-        <v>0.30895</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D11" s="7">
-        <v>0.590785</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.59219200000000005</v>
-      </c>
-      <c r="F11" s="7">
-        <v>1.87721E-2</v>
-      </c>
-      <c r="G11" s="5">
-        <f>AVERAGE(D11:F11)</f>
-        <v>0.40058303333333339</v>
-      </c>
-      <c r="I11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10000</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3.2304E-3</v>
-      </c>
-      <c r="E12" s="7">
-        <v>2.9212999999999999E-3</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2.5043000000000001E-3</v>
-      </c>
-      <c r="G12" s="5">
-        <f>AVERAGE(D12:F12)</f>
-        <v>2.8853333333333335E-3</v>
-      </c>
-      <c r="I12">
-        <f>G9/G12</f>
-        <v>717.27010166358593</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="11"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:G16"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00EAB2DC-3AF5-4D06-B600-6108B3B32FF4}">
+  <dimension ref="B2:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1.9244300000000001</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2.12</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2.1642600000000001</v>
+      </c>
+      <c r="G3" s="5">
+        <f>AVERAGE(D3:F3)</f>
+        <v>2.0695633333333334</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.30981999999999998</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0.307728</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.30930200000000002</v>
+      </c>
+      <c r="G4" s="5">
+        <f>AVERAGE(D4:F4)</f>
+        <v>0.30895</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0.590785</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0.59219200000000005</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1.87721E-2</v>
+      </c>
+      <c r="G5" s="5">
+        <f>AVERAGE(D5:F5)</f>
+        <v>0.40058303333333339</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3.2304E-3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.9212999999999999E-3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2.5043000000000001E-3</v>
+      </c>
+      <c r="G6" s="5">
+        <f>AVERAGE(D6:F6)</f>
+        <v>2.8853333333333335E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9A7A26-307E-465B-A65D-A49A5F797D5B}">
+  <dimension ref="B3:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>20000</v>
+      </c>
+      <c r="D4" s="7">
+        <v>22.051200000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>23.1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>21.042100000000001</v>
+      </c>
+      <c r="G4" s="5">
+        <f>AVERAGE(D4:F4)</f>
+        <v>22.064433333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7">
+        <v>20000</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4.1758899999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5.6532099999999996</v>
+      </c>
+      <c r="F5" s="7">
+        <v>4.0849599999999997</v>
+      </c>
+      <c r="G5" s="5">
+        <f>AVERAGE(D5:F5)</f>
+        <v>4.63802</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>20000</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8.2547599999999992</v>
+      </c>
+      <c r="E6" s="7">
+        <v>10.694100000000001</v>
+      </c>
+      <c r="F6" s="7">
+        <v>8.2216799999999992</v>
+      </c>
+      <c r="G6" s="5">
+        <f>AVERAGE(D6:F6)</f>
+        <v>9.0568466666666669</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>20000</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1.5118700000000001E-2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2.54401E-2</v>
+      </c>
+      <c r="G7" s="5">
+        <f>AVERAGE(D7:F7)</f>
+        <v>2.02794E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>